--- a/PricerAndQutation/OptionPricer_v2_20171130.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20171130.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="offer_van combo" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="215">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,6 +754,34 @@
   </si>
   <si>
     <t>厦门利青弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWGJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp1</t>
+  </si>
+  <si>
+    <t>I1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWGJ</t>
+  </si>
+  <si>
+    <t>I1801</t>
+  </si>
+  <si>
+    <t>GFJC</t>
+  </si>
+  <si>
+    <t>GFJC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU1806</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,6 +1281,11 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="20" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1298,11 +1331,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="20" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1326,20 +1354,27 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>9340</v>
+        <v>511.5</v>
+        <stp/>
+        <stp>I1801</stp>
+        <stp>LastPrice</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>9305</v>
         <stp/>
         <stp>L1805</stp>
         <stp>LastPrice</stp>
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>4007</v>
+        <v>3990</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
         <tr r="G8" s="1"/>
+        <tr r="G8" s="8"/>
         <tr r="G8" s="7"/>
-        <tr r="G8" s="8"/>
       </tp>
     </main>
   </volType>
@@ -1633,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1655,11 +1690,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:17" ht="12" thickTop="1"/>
     <row r="3" spans="1:17">
@@ -1879,7 +1914,7 @@
       <c r="E9" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="108">
+      <c r="F9" s="93">
         <v>9455</v>
       </c>
       <c r="G9" s="79">
@@ -1915,6 +1950,170 @@
       <c r="Q9" s="82">
         <v>134</v>
       </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="M10" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="O10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" s="78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="83">
+        <v>1</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="84">
+        <v>511.5</v>
+      </c>
+      <c r="G11" s="83">
+        <v>530</v>
+      </c>
+      <c r="H11" s="85">
+        <v>43069</v>
+      </c>
+      <c r="I11" s="85">
+        <v>43084</v>
+      </c>
+      <c r="J11" s="83">
+        <v>15</v>
+      </c>
+      <c r="K11" s="86">
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="L11" s="86">
+        <v>0</v>
+      </c>
+      <c r="M11" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="87">
+        <v>5.4736489673551034</v>
+      </c>
+      <c r="O11" s="83">
+        <v>0</v>
+      </c>
+      <c r="P11" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="87">
+        <v>5.4736489673551034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="O12" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q12" s="78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1943,63 +2142,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="100"/>
+      <c r="C1" s="103"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="G3" s="98" t="s">
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="G3" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="L3" s="101" t="s">
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="L3" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="Q3" s="98" t="s">
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="Q3" s="101" t="s">
         <v>199</v>
       </c>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="G4" s="99" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="G4" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="L4" s="99" t="s">
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="L4" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="Q4" s="99" t="s">
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="Q4" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="46" t="s">
@@ -2008,10 +2207,10 @@
       <c r="C5" s="47"/>
       <c r="D5" s="48"/>
       <c r="E5" s="49"/>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="94"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="48"/>
       <c r="J5" s="49"/>
       <c r="L5" s="46" t="s">
@@ -2020,360 +2219,360 @@
       <c r="M5" s="47"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
-      <c r="Q5" s="94" t="s">
+      <c r="Q5" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="94"/>
+      <c r="R5" s="97"/>
       <c r="S5" s="48"/>
       <c r="T5" s="49"/>
     </row>
     <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="95" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="G6" s="94" t="s">
+      <c r="E6" s="99"/>
+      <c r="G6" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
-      <c r="L6" s="97" t="s">
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
+      <c r="L6" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="97"/>
-      <c r="N6" s="95" t="s">
+      <c r="M6" s="100"/>
+      <c r="N6" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="O6" s="96"/>
-      <c r="Q6" s="94" t="s">
+      <c r="O6" s="99"/>
+      <c r="Q6" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="R6" s="94"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="96"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="99"/>
     </row>
     <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="95" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="G7" s="94" t="s">
+      <c r="E7" s="99"/>
+      <c r="G7" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="96"/>
-      <c r="L7" s="97" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="99"/>
+      <c r="L7" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="95" t="s">
+      <c r="M7" s="100"/>
+      <c r="N7" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="Q7" s="94" t="s">
+      <c r="O7" s="99"/>
+      <c r="Q7" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="R7" s="94"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="96"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99"/>
     </row>
     <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="95">
+      <c r="C8" s="100"/>
+      <c r="D8" s="98">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="G8" s="94" t="s">
+      <c r="E8" s="99"/>
+      <c r="G8" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="96"/>
-      <c r="L8" s="97" t="s">
+      <c r="H8" s="97"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
+      <c r="L8" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="M8" s="97"/>
-      <c r="N8" s="95">
+      <c r="M8" s="100"/>
+      <c r="N8" s="98">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="96"/>
-      <c r="Q8" s="94" t="s">
+      <c r="O8" s="99"/>
+      <c r="Q8" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="R8" s="94"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="96"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="99"/>
     </row>
     <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="95" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="G9" s="94" t="s">
+      <c r="E9" s="99"/>
+      <c r="G9" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
-      <c r="L9" s="97" t="s">
+      <c r="H9" s="97"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="99"/>
+      <c r="L9" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="M9" s="97"/>
-      <c r="N9" s="95" t="s">
+      <c r="M9" s="100"/>
+      <c r="N9" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="O9" s="96"/>
-      <c r="Q9" s="94" t="s">
+      <c r="O9" s="99"/>
+      <c r="Q9" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="94"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="96"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="99"/>
     </row>
     <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="95">
+      <c r="C10" s="100"/>
+      <c r="D10" s="98">
         <v>43084</v>
       </c>
-      <c r="E10" s="96"/>
+      <c r="E10" s="99"/>
       <c r="G10" s="43" t="s">
         <v>137</v>
       </c>
       <c r="H10" s="43"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
-      <c r="L10" s="97" t="s">
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
+      <c r="L10" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="M10" s="97"/>
-      <c r="N10" s="95">
+      <c r="M10" s="100"/>
+      <c r="N10" s="98">
         <v>43084</v>
       </c>
-      <c r="O10" s="96"/>
+      <c r="O10" s="99"/>
       <c r="Q10" s="90" t="s">
         <v>137</v>
       </c>
       <c r="R10" s="90"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="96"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="99"/>
     </row>
     <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="95">
+      <c r="C11" s="100"/>
+      <c r="D11" s="98">
         <v>3935</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="G11" s="94" t="s">
+      <c r="E11" s="99"/>
+      <c r="G11" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="L11" s="97" t="s">
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
+      <c r="L11" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="95">
+      <c r="M11" s="100"/>
+      <c r="N11" s="98">
         <v>3935</v>
       </c>
-      <c r="O11" s="96"/>
-      <c r="Q11" s="94" t="s">
+      <c r="O11" s="99"/>
+      <c r="Q11" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="R11" s="94"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="96"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="99"/>
     </row>
     <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="95">
+      <c r="C12" s="100"/>
+      <c r="D12" s="98">
         <v>3800</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="G12" s="94" t="s">
+      <c r="E12" s="99"/>
+      <c r="G12" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="L12" s="97" t="s">
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="99"/>
+      <c r="L12" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="M12" s="97"/>
-      <c r="N12" s="95">
+      <c r="M12" s="100"/>
+      <c r="N12" s="98">
         <v>3800</v>
       </c>
-      <c r="O12" s="96"/>
-      <c r="Q12" s="94" t="s">
+      <c r="O12" s="99"/>
+      <c r="Q12" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="R12" s="94"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="96"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="99"/>
     </row>
     <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="95">
+      <c r="C13" s="100"/>
+      <c r="D13" s="98">
         <v>61</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="G13" s="94" t="s">
+      <c r="E13" s="99"/>
+      <c r="G13" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
-      <c r="L13" s="97" t="s">
+      <c r="H13" s="97"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="99"/>
+      <c r="L13" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="95">
+      <c r="M13" s="100"/>
+      <c r="N13" s="98">
         <v>3800</v>
       </c>
-      <c r="O13" s="96"/>
-      <c r="Q13" s="94" t="s">
+      <c r="O13" s="99"/>
+      <c r="Q13" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="R13" s="94"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="96"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="99"/>
     </row>
     <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="95" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="G14" s="94" t="s">
+      <c r="E14" s="99"/>
+      <c r="G14" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="94"/>
+      <c r="H14" s="97"/>
       <c r="I14" s="44"/>
       <c r="J14" s="45"/>
-      <c r="L14" s="97" t="s">
+      <c r="L14" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="M14" s="97"/>
-      <c r="N14" s="95">
+      <c r="M14" s="100"/>
+      <c r="N14" s="98">
         <v>61</v>
       </c>
-      <c r="O14" s="96"/>
-      <c r="Q14" s="94" t="s">
+      <c r="O14" s="99"/>
+      <c r="Q14" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="R14" s="94"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="96"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="99"/>
     </row>
     <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="95">
+      <c r="C15" s="100"/>
+      <c r="D15" s="98">
         <v>5000</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="G15" s="94" t="s">
+      <c r="E15" s="99"/>
+      <c r="G15" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="96"/>
-      <c r="L15" s="97" t="s">
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
+      <c r="L15" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="M15" s="97"/>
-      <c r="N15" s="95" t="s">
+      <c r="M15" s="100"/>
+      <c r="N15" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="96"/>
-      <c r="Q15" s="94" t="s">
+      <c r="O15" s="99"/>
+      <c r="Q15" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="R15" s="94"/>
+      <c r="R15" s="97"/>
       <c r="S15" s="88"/>
       <c r="T15" s="89"/>
     </row>
     <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="103" t="s">
+      <c r="C16" s="108"/>
+      <c r="D16" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="104"/>
-      <c r="G16" s="102" t="s">
+      <c r="E16" s="107"/>
+      <c r="G16" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="104"/>
-      <c r="L16" s="97" t="s">
+      <c r="H16" s="105"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="107"/>
+      <c r="L16" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="M16" s="97"/>
-      <c r="N16" s="95">
+      <c r="M16" s="100"/>
+      <c r="N16" s="98">
         <v>5000</v>
       </c>
-      <c r="O16" s="96"/>
-      <c r="Q16" s="94" t="s">
+      <c r="O16" s="99"/>
+      <c r="Q16" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="R16" s="94"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="99"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="105" t="s">
+      <c r="L17" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="M17" s="105"/>
-      <c r="N17" s="103" t="s">
+      <c r="M17" s="108"/>
+      <c r="N17" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="O17" s="104"/>
-      <c r="Q17" s="102" t="s">
+      <c r="O17" s="107"/>
+      <c r="Q17" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="R17" s="102"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="104"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="107"/>
     </row>
     <row r="18" spans="2:20" ht="12" thickTop="1"/>
     <row r="19" spans="2:20" ht="13.5">
@@ -2492,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2515,10 +2714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="100"/>
+      <c r="C1" s="103"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -2653,7 +2852,7 @@
       </c>
       <c r="G8" s="20">
         <f>RTD("wdf.rtq",,E8,"LastPrice")</f>
-        <v>4007</v>
+        <v>3990</v>
       </c>
       <c r="H8" s="19">
         <v>3800</v>
@@ -2681,30 +2880,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$F8,$G8,$H8,$L8,$C$3,$M8,$N8,$C$4)*D8</f>
-        <v>-261.62777343297967</v>
+        <v>-249.11476623875478</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*L8*G8</f>
-        <v>2.6347397260273975</v>
+        <v>2.6235616438356164</v>
       </c>
       <c r="R8" s="24">
         <f>IF(O8&lt;=0,ABS(O8)+Q8,O8-Q8)</f>
-        <v>264.26251315900709</v>
+        <v>251.7383278825904</v>
       </c>
       <c r="S8" s="26">
         <f>R8/G8</f>
-        <v>6.59502154127794E-2</v>
+        <v>6.3092312752528926E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$F8,$G8,$H8,$L8,$C$3,$M8,$N8,$C$4)*D8</f>
-        <v>-0.7440577824581851</v>
+        <v>-0.72796512440618244</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$F8,$G8,$H8,$L8,$C$3,$M8,$N8,$C$4)*D8</f>
-        <v>-3.6799450491237167</v>
+        <v>-3.7812744282925905</v>
       </c>
       <c r="V8" s="24"/>
     </row>
@@ -2803,7 +3002,7 @@
       </c>
       <c r="G10" s="11">
         <f>RTD("wdf.rtq",,E10,"LastPrice")</f>
-        <v>9340</v>
+        <v>9305</v>
       </c>
       <c r="H10" s="10">
         <v>10000</v>
@@ -2819,7 +3018,7 @@
       <c r="K10" s="10">
         <v>90</v>
       </c>
-      <c r="L10" s="110">
+      <c r="L10" s="95">
         <f>(K10-5)/365</f>
         <v>0.23287671232876711</v>
       </c>
@@ -2831,79 +3030,183 @@
       </c>
       <c r="O10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$F10,$G10,$H10,$L10,$C$3,$M10,$N10,$C$4)*D10</f>
-        <v>116.68539812198605</v>
+        <v>108.46396063177735</v>
       </c>
       <c r="P10" s="15">
         <v>60</v>
       </c>
       <c r="Q10" s="13">
         <f>P10/10000*L10*G10</f>
-        <v>13.050410958904109</v>
+        <v>13.001506849315067</v>
       </c>
       <c r="R10" s="13">
         <f>IF(O10&lt;=0,ABS(O10)+Q10,O10-Q10)</f>
-        <v>103.63498716308195</v>
+        <v>95.462453782462291</v>
       </c>
       <c r="S10" s="14">
         <f>R10/G10</f>
-        <v>1.1095823036732542E-2</v>
+        <v>1.0259264243144791E-2</v>
       </c>
       <c r="T10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$F10,$G10,$H10,$L10,$C$3,$M10,$N10,$C$4)*D10</f>
-        <v>0.24120147365920275</v>
+        <v>0.22864871540377862</v>
       </c>
       <c r="U10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$F10,$G10,$H10,$L10,$C$3,$M10,$N10,$C$4)*D10</f>
-        <v>14.011209597618063</v>
-      </c>
-      <c r="V10" s="109" t="s">
+        <v>13.552851532474506</v>
+      </c>
+      <c r="V10" s="94" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
+      <c r="A11" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="10">
+        <f>IF(C11="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="11">
+        <f>RTD("wdf.rtq",,E11,"LastPrice")</f>
+        <v>511.5</v>
+      </c>
+      <c r="H11" s="10">
+        <v>530</v>
+      </c>
+      <c r="I11" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43069</v>
+      </c>
+      <c r="J11" s="8">
+        <f ca="1">I11+K11</f>
+        <v>43084</v>
+      </c>
+      <c r="K11" s="10">
+        <v>15</v>
+      </c>
+      <c r="L11" s="12">
+        <f>K11/365</f>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O11" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$F11,$G11,$H11,$L11,$C$3,$M11,$N11,$C$4)*D11</f>
+        <v>5.4736489673551034</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>P11/10000*L11*G11</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
+        <f>IF(O11&lt;=0,ABS(O11)+Q11,O11-Q11)</f>
+        <v>5.4736489673551034</v>
+      </c>
+      <c r="S11" s="14">
+        <f>R11/G11</f>
+        <v>1.0701171001671757E-2</v>
+      </c>
+      <c r="T11" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$F11,$G11,$H11,$L11,$C$3,$M11,$N11,$C$4)*D11</f>
+        <v>0.28961970495231526</v>
+      </c>
+      <c r="U11" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$F11,$G11,$H11,$L11,$C$3,$M11,$N11,$C$4)*D11</f>
+        <v>0.35450871444270149</v>
+      </c>
       <c r="V11" s="13"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10">
+        <f>IF(C12="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="11">
+        <v>100</v>
+      </c>
+      <c r="H12" s="10">
+        <v>100</v>
+      </c>
+      <c r="I12" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43069</v>
+      </c>
+      <c r="J12" s="8">
+        <f ca="1">I12+K12</f>
+        <v>43099</v>
+      </c>
+      <c r="K12" s="10">
+        <v>30</v>
+      </c>
+      <c r="L12" s="12">
+        <f>K12/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="O12" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$F12,$G12,$H12,$L12,$C$3,$M12,$N12,$C$4)*D12</f>
+        <v>-1.5414058935171582</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>P12/10000*L12*G12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <f>IF(O12&lt;=0,ABS(O12)+Q12,O12-Q12)</f>
+        <v>1.5414058935171582</v>
+      </c>
+      <c r="S12" s="14">
+        <f>R12/G12</f>
+        <v>1.5414058935171582E-2</v>
+      </c>
+      <c r="T12" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$F12,$G12,$H12,$L12,$C$3,$M12,$N12,$C$4)*D12</f>
+        <v>-0.50688576111603822</v>
+      </c>
+      <c r="U12" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$F12,$G12,$H12,$L12,$C$3,$M12,$N12,$C$4)*D12</f>
+        <v>-0.11416392323792124</v>
+      </c>
       <c r="V12" s="13"/>
     </row>
     <row r="13" spans="1:22">
@@ -3570,7 +3873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -3593,10 +3896,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="100"/>
+      <c r="C1" s="103"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="50" t="s">
@@ -4653,10 +4956,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="100"/>
+      <c r="C1" s="103"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -4803,7 +5106,7 @@
       </c>
       <c r="G8" s="20">
         <f>RTD("wdf.rtq",,E8,"LastPrice")</f>
-        <v>4007</v>
+        <v>3990</v>
       </c>
       <c r="H8" s="19">
         <v>3800</v>
@@ -4841,18 +5144,18 @@
       </c>
       <c r="R8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",F8,G8,H8,J8,K8*G8,O8,$C$3,P8,Q8,$C$4)*D8</f>
-        <v>-80.14</v>
+        <v>-79.8</v>
       </c>
       <c r="S8" s="25">
         <v>80</v>
       </c>
       <c r="T8" s="24">
         <f>S8/10000*O8*G8</f>
-        <v>2.6347397260273975</v>
+        <v>2.6235616438356164</v>
       </c>
       <c r="U8" s="24">
         <f>IF(R8&lt;=0,ABS(R8)+T8,R8-T8)</f>
-        <v>82.774739726027391</v>
+        <v>82.423561643835612</v>
       </c>
       <c r="V8" s="26">
         <f>U8/G8</f>
@@ -6423,7 +6726,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6520,10 +6823,14 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2"/>
@@ -6608,7 +6915,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6630,10 +6937,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="107"/>
+      <c r="C1" s="110"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -6764,7 +7071,7 @@
       </c>
       <c r="G8" s="20">
         <f>RTD("wdf.rtq",,E8,"LastPrice")</f>
-        <v>4007</v>
+        <v>3990</v>
       </c>
       <c r="H8" s="19">
         <v>3800</v>
@@ -6789,30 +7096,30 @@
       </c>
       <c r="N8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$F8,$G8,$H8,$L8,$C$3,$C$4,$M8)</f>
-        <v>264.08431310496735</v>
+        <v>251.5082477197443</v>
       </c>
       <c r="O8" s="25">
         <v>80</v>
       </c>
       <c r="P8" s="24">
         <f>O8/10000*L8*G8*(-D8)</f>
-        <v>2.6347397260273975</v>
+        <v>2.6235616438356164</v>
       </c>
       <c r="Q8" s="24">
         <f>N8+P8</f>
-        <v>266.71905283099477</v>
+        <v>254.13180936357992</v>
       </c>
       <c r="R8" s="26">
         <f>Q8/G8</f>
-        <v>6.6563277472172389E-2</v>
+        <v>6.3692182797889699E-2</v>
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$F8,$G8,$H8,$L8,$C$3,$C$4,$M8,$C$4)</f>
-        <v>0.74772425093669881</v>
+        <v>0.73171651090433443</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$F8,$G8,$H8,$L8,$C$3,$C$4,$M8)</f>
-        <v>3.659639616536424</v>
+        <v>3.7621872795307354</v>
       </c>
       <c r="U8" s="24"/>
     </row>
